--- a/aims_api.API/Template/Inbound/PO_Template.xlsx
+++ b/aims_api.API/Template/Inbound/PO_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mark\AIMS\aims_api-main\aims_api-main\aims_api.API\Template\Inbound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65774C-208B-4BDA-A0A8-2B396BCBD809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB5E52B-5CD5-4E2B-8BB6-9932C7E00905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="810" windowWidth="29145" windowHeight="15465" xr2:uid="{0220ED82-129B-450D-96C3-FAA7F53D754B}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{0220ED82-129B-450D-96C3-FAA7F53D754B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1238</v>
+        <v>1779</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1239</v>
+        <v>1780</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
